--- a/update_list_everyday.xlsx
+++ b/update_list_everyday.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F59823F-24BD-4BE2-8507-A05DC777184E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="14955" yWindow="1215" windowWidth="21150" windowHeight="15825" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="其本设置" sheetId="1" r:id="rId1"/>
     <sheet name="女团饭拍" sheetId="2" r:id="rId2"/>
     <sheet name="女团专辑" sheetId="4" r:id="rId3"/>
     <sheet name="8K视频" sheetId="3" r:id="rId4"/>
+    <sheet name="科普工程" sheetId="5" r:id="rId5"/>
+    <sheet name="奇闻异事" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="98">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -166,12 +169,231 @@
   </si>
   <si>
     <t>是</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UC9yk9ERq4596_Mjg9DDIAzQ/videos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yamabiko Wood Art</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kp001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木头加工01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木头加工02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kp002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Matt Jordan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/user/jordan010178/videos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准时 无logo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艺术 准时 无logo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wood Workshop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCPfFyT27FFabZWQsLbERo1A/videos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kp003</t>
+  </si>
+  <si>
+    <t>木头加工03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cook Woodworks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCRFPMZZqDEE7pJgMU1R0_EQ/videos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kp004</t>
+  </si>
+  <si>
+    <t>kp005</t>
+  </si>
+  <si>
+    <t>kp006</t>
+  </si>
+  <si>
+    <t>kp007</t>
+  </si>
+  <si>
+    <t>kp008</t>
+  </si>
+  <si>
+    <t>kp009</t>
+  </si>
+  <si>
+    <t>木头加工04</t>
+  </si>
+  <si>
+    <t>木头加工05</t>
+  </si>
+  <si>
+    <t>木头加工06</t>
+  </si>
+  <si>
+    <t>木头加工07</t>
+  </si>
+  <si>
+    <t>木头加工08</t>
+  </si>
+  <si>
+    <t>组合 准时 无logo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200501</t>
+  </si>
+  <si>
+    <t>Thomas Anton Geurts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/user/Tagmation/videos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hogan Baker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/user/HoganBakerBladesmith/videos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Odair Lucas Lucas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCwg43Nisex2y8YvQM0D5Wjg/videos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Andy Phillip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCDQz4H7tz6Fwu5_5rg4W6pA/videos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组合 艺术 准时 无logo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加工艺术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>琥珀 艺术 无logo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/user/jedrek29t/videos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jedrek29t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCwoOqyyMj0Xb1RIP-ubN31A/videos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kp010</t>
+  </si>
+  <si>
+    <t>How to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加工改造</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCe1Nayt74gS0AsWbP8JIm5g/videos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kp011</t>
+  </si>
+  <si>
+    <t>Matthew Kaltsidis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组合 准时 无logo 少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UC3-0S7vXfwYY2jj5EkMpymA/videos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Nick Zammeti </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kp012</t>
+  </si>
+  <si>
+    <t>kp013</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -223,13 +445,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -248,7 +473,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -323,6 +548,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -358,6 +600,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -533,7 +792,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -563,11 +822,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K21" sqref="A1:K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -729,10 +988,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"开,关"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H3 K4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H3 K4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
@@ -742,7 +1001,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="J1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -765,7 +1024,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"开,关"</formula1>
     </dataValidation>
   </dataValidations>
@@ -774,7 +1033,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="J1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -794,10 +1053,668 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"开,关"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{997DD4D2-E144-4920-B43F-D1CCBDB400AC}">
+  <dimension ref="A1:K30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="15.25" customWidth="1"/>
+    <col min="3" max="3" width="57.25" customWidth="1"/>
+    <col min="5" max="5" width="7.625" customWidth="1"/>
+    <col min="6" max="6" width="17.875" customWidth="1"/>
+    <col min="8" max="8" width="6.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4 H2:H11" xr:uid="{523B9A89-F743-419D-B623-A66EBA63DE05}">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K2" xr:uid="{AD31BDD7-1EE6-4211-827D-FFC24CE52FE3}">
+      <formula1>"开,关"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D41B73-C3D2-445D-BB88-27B40CAC3614}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>